--- a/MATLAB/Characters.xlsx
+++ b/MATLAB/Characters.xlsx
@@ -13,156 +13,153 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" count="1850" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" count="1850" uniqueCount="49">
   <si>
-    <t>	</t>
+    <t>õ</t>
   </si>
   <si>
-    <t>_x0011_</t>
+    <t>ê</t>
+  </si>
+  <si>
+    <t>à</t>
+  </si>
+  <si>
+    <t>Õ</t>
+  </si>
+  <si>
+    <t>Ë</t>
+  </si>
+  <si>
+    <t>Á</t>
+  </si>
+  <si>
+    <t>¶</t>
+  </si>
+  <si>
+    <t>¬</t>
+  </si>
+  <si>
+    <t>¡</t>
+  </si>
+  <si>
+    <t></t>
+  </si>
+  <si>
+    <t></t>
+  </si>
+  <si>
+    <t></t>
+  </si>
+  <si>
+    <t>x</t>
+  </si>
+  <si>
+    <t>n</t>
+  </si>
+  <si>
+    <t>c</t>
+  </si>
+  <si>
+    <t>Y</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>D</t>
+  </si>
+  <si>
+    <t>:</t>
+  </si>
+  <si>
+    <t>/</t>
+  </si>
+  <si>
+    <t>%</t>
   </si>
   <si>
     <t>_x001a_</t>
   </si>
   <si>
-    <t>#</t>
+    <t>_x0010_</t>
   </si>
   <si>
-    <t>,</t>
+    <t>_x0005_</t>
   </si>
   <si>
-    <t>4</t>
+    <t>ú</t>
   </si>
   <si>
-    <t>=</t>
+    <t>ð</t>
   </si>
   <si>
-    <t>F</t>
+    <t>å</t>
   </si>
   <si>
-    <t>N</t>
+    <t>Û</t>
   </si>
   <si>
-    <t>W</t>
+    <t>Ð</t>
   </si>
   <si>
-    <t>`</t>
+    <t>Æ</t>
+  </si>
+  <si>
+    <t>¼</t>
+  </si>
+  <si>
+    <t>±</t>
+  </si>
+  <si>
+    <t>§</t>
+  </si>
+  <si>
+    <t></t>
+  </si>
+  <si>
+    <t></t>
+  </si>
+  <si>
+    <t></t>
+  </si>
+  <si>
+    <t>}</t>
+  </si>
+  <si>
+    <t>s</t>
   </si>
   <si>
     <t>i</t>
   </si>
   <si>
-    <t>q</t>
+    <t>^</t>
   </si>
   <si>
-    <t>z</t>
+    <t>T</t>
   </si>
   <si>
-    <t></t>
+    <t>I</t>
   </si>
   <si>
-    <t></t>
+    <t>?</t>
   </si>
   <si>
-    <t></t>
+    <t>5</t>
   </si>
   <si>
-    <t></t>
-  </si>
-  <si>
-    <t>¥</t>
-  </si>
-  <si>
-    <t>®</t>
-  </si>
-  <si>
-    <t>·</t>
-  </si>
-  <si>
-    <t>¿</t>
-  </si>
-  <si>
-    <t>È</t>
-  </si>
-  <si>
-    <t>Ñ</t>
-  </si>
-  <si>
-    <t>Ú</t>
-  </si>
-  <si>
-    <t>â</t>
-  </si>
-  <si>
-    <t>ë</t>
-  </si>
-  <si>
-    <t>ô</t>
-  </si>
-  <si>
-    <t>ý</t>
-  </si>
-  <si>
-    <t>_x0006_</t>
-  </si>
-  <si>
-    <t>_x000f_</t>
-  </si>
-  <si>
-    <t>_x0018_</t>
+    <t>*</t>
   </si>
   <si>
     <t xml:space="preserve"> </t>
   </si>
   <si>
-    <t>)</t>
+    <t>_x0015_</t>
   </si>
   <si>
-    <t>2</t>
+    <t>_x000b_</t>
   </si>
   <si>
-    <t>;</t>
-  </si>
-  <si>
-    <t>C</t>
-  </si>
-  <si>
-    <t>L</t>
-  </si>
-  <si>
-    <t>U</t>
-  </si>
-  <si>
-    <t>]</t>
-  </si>
-  <si>
-    <t>f</t>
-  </si>
-  <si>
-    <t>o</t>
-  </si>
-  <si>
-    <t>w</t>
-  </si>
-  <si>
-    <t></t>
-  </si>
-  <si>
-    <t></t>
-  </si>
-  <si>
-    <t></t>
-  </si>
-  <si>
-    <t></t>
-  </si>
-  <si>
-    <t>£</t>
-  </si>
-  <si>
-    <t>¬</t>
-  </si>
-  <si>
-    <t>´</t>
+    <t/>
   </si>
 </sst>
 </file>
@@ -214,56 +211,56 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="2" customWidth="true"/>
+    <col min="1" max="1" width="2.109375" customWidth="true"/>
     <col min="2" max="2" width="2" customWidth="true"/>
     <col min="3" max="3" width="2" customWidth="true"/>
-    <col min="4" max="4" width="2" customWidth="true"/>
-    <col min="5" max="5" width="1.37890625" customWidth="true"/>
-    <col min="6" max="6" width="2" customWidth="true"/>
-    <col min="7" max="7" width="2" customWidth="true"/>
-    <col min="8" max="8" width="1.88671875" customWidth="true"/>
-    <col min="9" max="9" width="2.33203125" customWidth="true"/>
-    <col min="10" max="10" width="2.77734375" customWidth="true"/>
-    <col min="11" max="11" width="1.5546875" customWidth="true"/>
-    <col min="12" max="12" width="1.37890625" customWidth="true"/>
-    <col min="13" max="13" width="2" customWidth="true"/>
-    <col min="14" max="14" width="1.77734375" customWidth="true"/>
-    <col min="15" max="15" width="0.6875" customWidth="true"/>
-    <col min="16" max="16" width="0.6875" customWidth="true"/>
-    <col min="17" max="17" width="0.6875" customWidth="true"/>
-    <col min="18" max="18" width="0.6875" customWidth="true"/>
-    <col min="19" max="19" width="2" customWidth="true"/>
-    <col min="20" max="20" width="2" customWidth="true"/>
-    <col min="21" max="21" width="1.5546875" customWidth="true"/>
-    <col min="22" max="22" width="1.88671875" customWidth="true"/>
+    <col min="4" max="4" width="2.33203125" customWidth="true"/>
+    <col min="5" max="5" width="2" customWidth="true"/>
+    <col min="6" max="6" width="2.109375" customWidth="true"/>
+    <col min="7" max="7" width="2.21875" customWidth="true"/>
+    <col min="8" max="8" width="2" customWidth="true"/>
+    <col min="9" max="9" width="1.6640625" customWidth="true"/>
+    <col min="10" max="10" width="0.6875" customWidth="true"/>
+    <col min="11" max="11" width="0.6875" customWidth="true"/>
+    <col min="12" max="12" width="0.6875" customWidth="true"/>
+    <col min="13" max="13" width="1.88671875" customWidth="true"/>
+    <col min="14" max="14" width="2" customWidth="true"/>
+    <col min="15" max="15" width="1.88671875" customWidth="true"/>
+    <col min="16" max="16" width="2" customWidth="true"/>
+    <col min="17" max="17" width="2.33203125" customWidth="true"/>
+    <col min="18" max="18" width="2.21875" customWidth="true"/>
+    <col min="19" max="19" width="1.5546875" customWidth="true"/>
+    <col min="20" max="20" width="1.77734375" customWidth="true"/>
+    <col min="21" max="21" width="2.44140625" customWidth="true"/>
+    <col min="22" max="22" width="2" customWidth="true"/>
     <col min="23" max="23" width="2" customWidth="true"/>
-    <col min="24" max="24" width="2.33203125" customWidth="true"/>
-    <col min="25" max="25" width="2.33203125" customWidth="true"/>
+    <col min="24" max="24" width="2" customWidth="true"/>
+    <col min="25" max="25" width="2" customWidth="true"/>
     <col min="26" max="26" width="2" customWidth="true"/>
     <col min="27" max="27" width="2" customWidth="true"/>
-    <col min="28" max="28" width="2.109375" customWidth="true"/>
-    <col min="29" max="29" width="1.88671875" customWidth="true"/>
-    <col min="30" max="30" width="2" customWidth="true"/>
-    <col min="31" max="31" width="2" customWidth="true"/>
+    <col min="28" max="28" width="2.33203125" customWidth="true"/>
+    <col min="29" max="29" width="2.21875" customWidth="true"/>
+    <col min="30" max="30" width="2.5546875" customWidth="true"/>
+    <col min="31" max="31" width="2.21875" customWidth="true"/>
     <col min="32" max="32" width="2" customWidth="true"/>
-    <col min="33" max="33" width="1.37890625" customWidth="true"/>
-    <col min="34" max="34" width="1.5546875" customWidth="true"/>
-    <col min="35" max="35" width="2" customWidth="true"/>
-    <col min="36" max="36" width="1.5546875" customWidth="true"/>
-    <col min="37" max="37" width="2.109375" customWidth="true"/>
-    <col min="38" max="38" width="1.88671875" customWidth="true"/>
-    <col min="39" max="39" width="2.33203125" customWidth="true"/>
-    <col min="40" max="40" width="1.6640625" customWidth="true"/>
-    <col min="41" max="41" width="1.6640625" customWidth="true"/>
-    <col min="42" max="42" width="2.109375" customWidth="true"/>
-    <col min="43" max="43" width="2.44140625" customWidth="true"/>
-    <col min="44" max="44" width="0.6875" customWidth="true"/>
-    <col min="45" max="45" width="0.6875" customWidth="true"/>
-    <col min="46" max="46" width="0.6875" customWidth="true"/>
-    <col min="47" max="47" width="0.6875" customWidth="true"/>
+    <col min="33" max="33" width="2" customWidth="true"/>
+    <col min="34" max="34" width="0.6875" customWidth="true"/>
+    <col min="35" max="35" width="0.6875" customWidth="true"/>
+    <col min="36" max="36" width="0.6875" customWidth="true"/>
+    <col min="37" max="37" width="1.6640625" customWidth="true"/>
+    <col min="38" max="38" width="1.77734375" customWidth="true"/>
+    <col min="39" max="39" width="1.37890625" customWidth="true"/>
+    <col min="40" max="40" width="2" customWidth="true"/>
+    <col min="41" max="41" width="2" customWidth="true"/>
+    <col min="42" max="42" width="1.5546875" customWidth="true"/>
+    <col min="43" max="43" width="1.88671875" customWidth="true"/>
+    <col min="44" max="44" width="2" customWidth="true"/>
+    <col min="45" max="45" width="2" customWidth="true"/>
+    <col min="46" max="46" width="1.37890625" customWidth="true"/>
+    <col min="47" max="47" width="2" customWidth="true"/>
     <col min="48" max="48" width="2" customWidth="true"/>
-    <col min="49" max="49" width="2" customWidth="true"/>
-    <col min="50" max="50" width="1.5546875" customWidth="true"/>
+    <col min="49" max="49" width="0.6875" customWidth="true"/>
+    <col min="50" max="50" width="2.109375" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -415,7 +412,7 @@
         <v>48</v>
       </c>
       <c r="AX1" s="0" t="s">
-        <v>49</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2">
@@ -567,7 +564,7 @@
         <v>48</v>
       </c>
       <c r="AX2" s="0" t="s">
-        <v>49</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -719,7 +716,7 @@
         <v>48</v>
       </c>
       <c r="AX3" s="0" t="s">
-        <v>49</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -871,7 +868,7 @@
         <v>48</v>
       </c>
       <c r="AX4" s="0" t="s">
-        <v>49</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -1023,7 +1020,7 @@
         <v>48</v>
       </c>
       <c r="AX5" s="0" t="s">
-        <v>49</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -1175,7 +1172,7 @@
         <v>48</v>
       </c>
       <c r="AX6" s="0" t="s">
-        <v>49</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -1327,7 +1324,7 @@
         <v>48</v>
       </c>
       <c r="AX7" s="0" t="s">
-        <v>49</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1479,7 +1476,7 @@
         <v>48</v>
       </c>
       <c r="AX8" s="0" t="s">
-        <v>49</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1631,7 +1628,7 @@
         <v>48</v>
       </c>
       <c r="AX9" s="0" t="s">
-        <v>49</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -1783,7 +1780,7 @@
         <v>48</v>
       </c>
       <c r="AX10" s="0" t="s">
-        <v>49</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1935,7 +1932,7 @@
         <v>48</v>
       </c>
       <c r="AX11" s="0" t="s">
-        <v>49</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -2087,7 +2084,7 @@
         <v>48</v>
       </c>
       <c r="AX12" s="0" t="s">
-        <v>49</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -2239,7 +2236,7 @@
         <v>48</v>
       </c>
       <c r="AX13" s="0" t="s">
-        <v>49</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -2391,7 +2388,7 @@
         <v>48</v>
       </c>
       <c r="AX14" s="0" t="s">
-        <v>49</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -2543,7 +2540,7 @@
         <v>48</v>
       </c>
       <c r="AX15" s="0" t="s">
-        <v>49</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16">
@@ -2695,7 +2692,7 @@
         <v>48</v>
       </c>
       <c r="AX16" s="0" t="s">
-        <v>49</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -2847,7 +2844,7 @@
         <v>48</v>
       </c>
       <c r="AX17" s="0" t="s">
-        <v>49</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -2999,7 +2996,7 @@
         <v>48</v>
       </c>
       <c r="AX18" s="0" t="s">
-        <v>49</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19">
@@ -3151,7 +3148,7 @@
         <v>48</v>
       </c>
       <c r="AX19" s="0" t="s">
-        <v>49</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -3303,7 +3300,7 @@
         <v>48</v>
       </c>
       <c r="AX20" s="0" t="s">
-        <v>49</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -3455,7 +3452,7 @@
         <v>48</v>
       </c>
       <c r="AX21" s="0" t="s">
-        <v>49</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22">
@@ -3607,7 +3604,7 @@
         <v>48</v>
       </c>
       <c r="AX22" s="0" t="s">
-        <v>49</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -3759,7 +3756,7 @@
         <v>48</v>
       </c>
       <c r="AX23" s="0" t="s">
-        <v>49</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -3911,7 +3908,7 @@
         <v>48</v>
       </c>
       <c r="AX24" s="0" t="s">
-        <v>49</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25">
@@ -4063,7 +4060,7 @@
         <v>48</v>
       </c>
       <c r="AX25" s="0" t="s">
-        <v>49</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -4215,7 +4212,7 @@
         <v>48</v>
       </c>
       <c r="AX26" s="0" t="s">
-        <v>49</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -4367,7 +4364,7 @@
         <v>48</v>
       </c>
       <c r="AX27" s="0" t="s">
-        <v>49</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28">
@@ -4519,7 +4516,7 @@
         <v>48</v>
       </c>
       <c r="AX28" s="0" t="s">
-        <v>49</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -4671,7 +4668,7 @@
         <v>48</v>
       </c>
       <c r="AX29" s="0" t="s">
-        <v>49</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -4823,7 +4820,7 @@
         <v>48</v>
       </c>
       <c r="AX30" s="0" t="s">
-        <v>49</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31">
@@ -4975,7 +4972,7 @@
         <v>48</v>
       </c>
       <c r="AX31" s="0" t="s">
-        <v>49</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -5127,7 +5124,7 @@
         <v>48</v>
       </c>
       <c r="AX32" s="0" t="s">
-        <v>49</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -5279,7 +5276,7 @@
         <v>48</v>
       </c>
       <c r="AX33" s="0" t="s">
-        <v>49</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34">
@@ -5431,7 +5428,7 @@
         <v>48</v>
       </c>
       <c r="AX34" s="0" t="s">
-        <v>49</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -5583,7 +5580,7 @@
         <v>48</v>
       </c>
       <c r="AX35" s="0" t="s">
-        <v>49</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -5735,7 +5732,7 @@
         <v>48</v>
       </c>
       <c r="AX36" s="0" t="s">
-        <v>49</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37">
@@ -5887,7 +5884,7 @@
         <v>48</v>
       </c>
       <c r="AX37" s="0" t="s">
-        <v>49</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
